--- a/tablaPresupuestosExel/Presupuestos.xlsx
+++ b/tablaPresupuestosExel/Presupuestos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELIAS\Desktop\PreEntrega1+Gallay\tablaPresupuestosExel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84FDED06-1378-4EA1-AE70-7746EAEEA342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A07191-FE68-49B2-A7C7-3936A0FB3C09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20520" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{A98E4899-6FFC-4CD7-996B-997908A87982}"/>
   </bookViews>
@@ -294,7 +294,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1073473</xdr:colOff>
+      <xdr:colOff>352295</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>13657</xdr:rowOff>
     </xdr:to>
@@ -631,7 +631,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF0F04D7-C24F-4C6B-B781-2F705EF28C8A}">
   <dimension ref="A2:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
@@ -641,7 +641,7 @@
     <col min="2" max="2" width="32.42578125" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="35.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="26.28515625" customWidth="1"/>
     <col min="6" max="7" width="24.42578125" customWidth="1"/>
     <col min="8" max="8" width="24.28515625" customWidth="1"/>
     <col min="9" max="9" width="31.42578125" customWidth="1"/>
@@ -826,6 +826,10 @@
       <c r="B16" t="s">
         <v>22</v>
       </c>
+      <c r="D16" s="5">
+        <f>A15+A16+A17</f>
+        <v>21436500.000000004</v>
+      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
